--- a/cardatabase.xlsx.xlsx
+++ b/cardatabase.xlsx.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15369ddf0b8636d1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imran\OneDrive\Desktop\Excel_learning_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC142D9E-31AB-432A-BB67-52748F02F15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{DC142D9E-31AB-432A-BB67-52748F02F15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0D0D4475-476A-42E3-B08A-C6559A734FD0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8148"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="2" r:id="rId1"/>
     <sheet name="car inventory" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,8 +953,2423 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[cardatabase.xlsx.xlsx]pivot!PivotTable1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivot!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pivot!$A$4:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Bard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ewenty</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gaul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Howard</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hulinski</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jones</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lyon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>McCall</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Praulty</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rodriguez</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Santos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Smith</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Swartz</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Torrens</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Vizzini</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Yousef</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pivot!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>144647.69999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35995.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154427.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>179986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143640.70000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55657.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107450.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127731.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70964.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56187.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>141229.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>305432.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>177713.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65964.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130601.59999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19341.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C470-4E68-873C-F354A14A2411}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="102459648"/>
+        <c:axId val="101787536"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="102459648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101787536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101787536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102459648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'car inventory'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Miles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'car inventory'!$G$2:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'car inventory'!$H$2:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>40326.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44974.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44946.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37558.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36438.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46311.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52229.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27637.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27534.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19341.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22521.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13682.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28464.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19421.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14289.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31144.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83162.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80685.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114660.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93382.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85928</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67829.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48114.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64467.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73444.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17556.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29601.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22128.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82374</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69891.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22573</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33477.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30555.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24513.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13867.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60389.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50854.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42504.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>68658.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3708.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>64542</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42074.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27394.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79420.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>77243.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>72527.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52699.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29102.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22282</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20223.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>22188.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72A3-4DC4-84EE-583258E3BA83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196930976"/>
+        <c:axId val="103756752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="196930976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>AGE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103756752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103756752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Miles</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Driven</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196930976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28ACC898-56D4-4306-BB28-F0B9ED29AFC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803EECF9-4800-4796-B740-88F7D2C1CD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ali Imran Adil" refreshedDate="45376.354176851855" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="52">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ali Imran Adil" refreshedDate="45376.354176851855" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="52" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N53" sheet="car inventory"/>
   </cacheSource>
@@ -1880,7 +4295,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -2010,6 +4425,17 @@
   <dataFields count="1">
     <dataField name="Sum of Miles" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2318,11 +4744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2494,15 +4920,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N53"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5442,5 +7869,6 @@
     <sortCondition ref="D57:D67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cardatabase.xlsx.xlsx
+++ b/cardatabase.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imran\OneDrive\Desktop\Excel_learning_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{DC142D9E-31AB-432A-BB67-52748F02F15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0D0D4475-476A-42E3-B08A-C6559A734FD0}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{DC142D9E-31AB-432A-BB67-52748F02F15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{25535A50-4361-42E6-9A2F-BC8671F56B64}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1933,8 +1933,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
-                  <a:t>AGE</a:t>
+                  <a:t>Age</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> of the car (years)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1972,8 +1977,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4929,7 +4935,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cardatabase.xlsx.xlsx
+++ b/cardatabase.xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imran\OneDrive\Desktop\Excel_learning_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{DC142D9E-31AB-432A-BB67-52748F02F15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{25535A50-4361-42E6-9A2F-BC8671F56B64}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{DC142D9E-31AB-432A-BB67-52748F02F15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1AD12B58-43E3-4E15-8E6C-0217BEA5EC92}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,28 +1550,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -1583,127 +1583,127 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,160 +1715,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>40326.800000000003</c:v>
+                  <c:v>17556.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44974.8</c:v>
+                  <c:v>14289.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44946.5</c:v>
+                  <c:v>27637.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37558.800000000003</c:v>
+                  <c:v>27534.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36438.5</c:v>
+                  <c:v>22521.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46311.4</c:v>
+                  <c:v>22188.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52229.5</c:v>
+                  <c:v>20223.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35137</c:v>
+                  <c:v>29601.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27637.1</c:v>
+                  <c:v>13867.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27534.799999999999</c:v>
+                  <c:v>13682.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19341.7</c:v>
+                  <c:v>24513.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22521.599999999999</c:v>
+                  <c:v>22282</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13682.9</c:v>
+                  <c:v>22128.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28464.799999999999</c:v>
+                  <c:v>30555.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>19421.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14289.6</c:v>
+                  <c:v>29102.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>19341.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48114.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27394.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33477.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>31144.400000000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
+                  <c:v>44946.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3708.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50854.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72527.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42504.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35137</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60389.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73444.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52229.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>114660.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37558.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85928</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36438.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42074.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>93382.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46311.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80685.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28464.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67829.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22573</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44974.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77243.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>82374</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69891.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64467.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>79420.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68658.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52699.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>83162.7</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>80685.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>114660.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>93382.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>85928</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>67829.100000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48114.2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>64467.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>73444.399999999994</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>17556.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29601.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22128.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>82374</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>69891.899999999994</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22573</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33477.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>30555.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24513.200000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13867.6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>60389.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50854.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42504.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>68658.899999999994</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3708.1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>64542</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42074.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>27394.2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>79420.600000000006</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>77243.100000000006</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>72527.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>52699.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29102.3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>22282</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>20223.900000000001</c:v>
-                </c:pt>
                 <c:pt idx="51">
-                  <c:v>22188.5</c:v>
+                  <c:v>40326.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4935,7 +4935,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4992,47 +4992,47 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B2" t="str">
         <f>LEFT(A2,2)</f>
-        <v>FD</v>
+        <v>TY</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,B$57:C$62,2)</f>
-        <v>Ford</v>
+        <v>Toyota</v>
       </c>
       <c r="D2" t="str">
         <f>MID(A2,5,3)</f>
-        <v>MTG</v>
+        <v>COR</v>
       </c>
       <c r="E2" t="str">
         <f>VLOOKUP(D2,D$57:E$67,2)</f>
-        <v>Mustang</v>
+        <v>Corola</v>
       </c>
       <c r="F2" t="str">
         <f>MID(A2,3,2)</f>
-        <v>06</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <f>IF(14-F2&lt;0,100-F2+14,14-F2)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>40326.800000000003</v>
+        <v>17556.3</v>
       </c>
       <c r="I2">
         <f>H2/IF(G2=0,(0.5+G2),G2)</f>
-        <v>5040.8500000000004</v>
+        <v>35112.6</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M2" t="str">
         <f>IF(H2&lt;L2,"Y","Not Covered")</f>
@@ -5040,696 +5040,696 @@
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE(LEFT(A2,7),UPPER(LEFT(J2,3)),RIGHT(A2,3))</f>
-        <v>FD06MTGBLA001</v>
+        <v>TY14CORBLU027</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B53" si="0">LEFT(A3,2)</f>
-        <v>FD</v>
+        <f>LEFT(A3,2)</f>
+        <v>GM</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C53" si="1">VLOOKUP(B3,B$57:C$62,2)</f>
-        <v>Ford</v>
+        <f>VLOOKUP(B3,B$57:C$62,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D53" si="2">MID(A3,5,3)</f>
-        <v>MTG</v>
+        <f>MID(A3,5,3)</f>
+        <v>CMR</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E53" si="3">VLOOKUP(D3,D$57:E$67,2)</f>
-        <v>Mustang</v>
+        <f>VLOOKUP(D3,D$57:E$67,2)</f>
+        <v>Camero</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F53" si="4">MID(A3,3,2)</f>
-        <v>06</v>
+        <f>MID(A3,3,2)</f>
+        <v>14</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G53" si="5">IF(14-F3&lt;0,100-F3+14,14-F3)</f>
-        <v>8</v>
+        <f>IF(14-F3&lt;0,100-F3+14,14-F3)</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>44974.8</v>
+        <v>14289.6</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I53" si="6">H3/IF(G3=0,(0.5+G3),G3)</f>
-        <v>5621.85</v>
+        <f>H3/IF(G3=0,(0.5+G3),G3)</f>
+        <v>28579.200000000001</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M53" si="7">IF(H3&lt;L3,"Y","Not Covered")</f>
+        <f>IF(H3&lt;L3,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N53" si="8">CONCATENATE(LEFT(A3,7),UPPER(LEFT(J3,3)),RIGHT(A3,3))</f>
-        <v>FD06MTGWHI002</v>
+        <f>CONCATENATE(LEFT(A3,7),UPPER(LEFT(J3,3)),RIGHT(A3,3))</f>
+        <v>GM14CMRWHI016</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A4,2)</f>
         <v>FD</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B4,B$57:C$62,2)</f>
         <v>Ford</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
-        <v>MTG</v>
+        <f>MID(A4,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="3"/>
-        <v>Mustang</v>
+        <f>VLOOKUP(D4,D$57:E$67,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A4,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G4">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>IF(14-F4&lt;0,100-F4+14,14-F4)</f>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>44946.5</v>
+        <v>27637.1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="6"/>
-        <v>7491.083333333333</v>
+        <f>H4/IF(G4=0,(0.5+G4),G4)</f>
+        <v>27637.1</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L4">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H4&lt;L4,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="8"/>
-        <v>FD08MTGGRE003</v>
+        <f>CONCATENATE(LEFT(A4,7),UPPER(LEFT(J4,3)),RIGHT(A4,3))</f>
+        <v>FD13FCSBLA009</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A5,2)</f>
         <v>FD</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B5,B$57:C$62,2)</f>
         <v>Ford</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
-        <v>MTG</v>
+        <f>MID(A5,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>Mustang</v>
+        <f>VLOOKUP(D5,D$57:E$67,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A5,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G5">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>IF(14-F5&lt;0,100-F5+14,14-F5)</f>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>37558.800000000003</v>
+        <v>27534.799999999999</v>
       </c>
       <c r="I5">
-        <f t="shared" si="6"/>
-        <v>6259.8</v>
+        <f>H5/IF(G5=0,(0.5+G5),G5)</f>
+        <v>27534.799999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L5">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H5&lt;L5,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="8"/>
-        <v>FD08MTGBLA004</v>
+        <f>CONCATENATE(LEFT(A5,7),UPPER(LEFT(J5,3)),RIGHT(A5,3))</f>
+        <v>FD13FCSWHI010</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A6,2)</f>
         <v>FD</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B6,B$57:C$62,2)</f>
         <v>Ford</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
-        <v>MTG</v>
+        <f>MID(A6,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>Mustang</v>
+        <f>VLOOKUP(D6,D$57:E$67,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A6,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G6">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>IF(14-F6&lt;0,100-F6+14,14-F6)</f>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>36438.5</v>
+        <v>22521.599999999999</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
-        <v>6073.083333333333</v>
+        <f>H6/IF(G6=0,(0.5+G6),G6)</f>
+        <v>22521.599999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="L6">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H6&lt;L6,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="8"/>
-        <v>FD08MTGWHI005</v>
+        <f>CONCATENATE(LEFT(A6,7),UPPER(LEFT(J6,3)),RIGHT(A6,3))</f>
+        <v>FD13FCSBLA012</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A7,2)</f>
+        <v>HY</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B7,B$57:C$62,2)</f>
+        <v>Hundai</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A7,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D7,D$57:E$67,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="4"/>
-        <v>06</v>
+        <f>MID(A7,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G7">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>IF(14-F7&lt;0,100-F7+14,14-F7)</f>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>46311.4</v>
+        <v>22188.5</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
-        <v>5788.9250000000002</v>
+        <f>H7/IF(G7=0,(0.5+G7),G7)</f>
+        <v>22188.5</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H7&lt;L7,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="8"/>
-        <v>FD06FCSGRE006</v>
+        <f>CONCATENATE(LEFT(A7,7),UPPER(LEFT(J7,3)),RIGHT(A7,3))</f>
+        <v>HY13ELABLU052</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A8,2)</f>
+        <v>HY</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B8,B$57:C$62,2)</f>
+        <v>Hundai</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A8,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D8,D$57:E$67,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="4"/>
-        <v>06</v>
+        <f>MID(A8,3,2)</f>
+        <v>13</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>IF(14-F8&lt;0,100-F8+14,14-F8)</f>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>52229.5</v>
+        <v>20223.900000000001</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
-        <v>6528.6875</v>
+        <f>H8/IF(G8=0,(0.5+G8),G8)</f>
+        <v>20223.900000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L8">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H8&lt;L8,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="8"/>
-        <v>FD06FCSGRE007</v>
+        <f>CONCATENATE(LEFT(A8,7),UPPER(LEFT(J8,3)),RIGHT(A8,3))</f>
+        <v>HY13ELABLA051</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A9,2)</f>
+        <v>TY</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B9,B$57:C$62,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A9,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D9,D$57:E$67,2)</f>
+        <v>Corola</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
+        <f>MID(A9,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>IF(14-F9&lt;0,100-F9+14,14-F9)</f>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>35137</v>
+        <v>29601.9</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
-        <v>7027.4</v>
+        <f>H9/IF(G9=0,(0.5+G9),G9)</f>
+        <v>14800.95</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L9">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H9&lt;L9,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="8"/>
-        <v>FD09FCSBLA008</v>
+        <f>CONCATENATE(LEFT(A9,7),UPPER(LEFT(J9,3)),RIGHT(A9,3))</f>
+        <v>TY12CORBLA028</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A10,2)</f>
+        <v>HO</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B10,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A10,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D10,D$57:E$67,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A10,3,2)</f>
         <v>13</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f>IF(14-F10&lt;0,100-F10+14,14-F10)</f>
         <v>1</v>
       </c>
       <c r="H10">
-        <v>27637.1</v>
+        <v>13867.6</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
-        <v>27637.1</v>
+        <f>H10/IF(G10=0,(0.5+G10),G10)</f>
+        <v>13867.6</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L10">
         <v>75000</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H10&lt;L10,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSBLA009</v>
+        <f>CONCATENATE(LEFT(A10,7),UPPER(LEFT(J10,3)),RIGHT(A10,3))</f>
+        <v>HO13CIVBLA036</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A11,2)</f>
         <v>FD</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B11,B$57:C$62,2)</f>
         <v>Ford</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(A11,5,3)</f>
         <v>FCS</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(D11,D$57:E$67,2)</f>
         <v>Focus</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A11,3,2)</f>
         <v>13</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
+        <f>IF(14-F11&lt;0,100-F11+14,14-F11)</f>
         <v>1</v>
       </c>
       <c r="H11">
-        <v>27534.799999999999</v>
+        <v>13682.9</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
-        <v>27534.799999999999</v>
+        <f>H11/IF(G11=0,(0.5+G11),G11)</f>
+        <v>13682.9</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <v>75000</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H11&lt;L11,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSWHI010</v>
+        <f>CONCATENATE(LEFT(A11,7),UPPER(LEFT(J11,3)),RIGHT(A11,3))</f>
+        <v>FD13FCSBLA013</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A12,2)</f>
+        <v>HO</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B12,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A12,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D12,D$57:E$67,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A12,3,2)</f>
         <v>12</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f>IF(14-F12&lt;0,100-F12+14,14-F12)</f>
         <v>2</v>
       </c>
       <c r="H12">
-        <v>19341.7</v>
+        <v>24513.200000000001</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
-        <v>9670.85</v>
+        <f>H12/IF(G12=0,(0.5+G12),G12)</f>
+        <v>12256.6</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L12">
         <v>75000</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H12&lt;L12,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="8"/>
-        <v>FD12FCSWHI011</v>
+        <f>CONCATENATE(LEFT(A12,7),UPPER(LEFT(J12,3)),RIGHT(A12,3))</f>
+        <v>HO12CIVBLA035</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A13,2)</f>
+        <v>HY</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B13,B$57:C$62,2)</f>
+        <v>Hundai</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A13,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D13,D$57:E$67,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A13,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(14-F13&lt;0,100-F13+14,14-F13)</f>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>22521.599999999999</v>
+        <v>22282</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
-        <v>22521.599999999999</v>
+        <f>H13/IF(G13=0,(0.5+G13),G13)</f>
+        <v>11141</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L13">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H13&lt;L13,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSBLA012</v>
+        <f>CONCATENATE(LEFT(A13,7),UPPER(LEFT(J13,3)),RIGHT(A13,3))</f>
+        <v>HY12ELABLU050</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>FD</v>
+        <f>LEFT(A14,2)</f>
+        <v>TY</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>Ford</v>
+        <f>VLOOKUP(B14,B$57:C$62,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>FCS</v>
+        <f>MID(A14,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="3"/>
-        <v>Focus</v>
+        <f>VLOOKUP(D14,D$57:E$67,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A14,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(14-F14&lt;0,100-F14+14,14-F14)</f>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>13682.9</v>
+        <v>22128.2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
-        <v>13682.9</v>
+        <f>H14/IF(G14=0,(0.5+G14),G14)</f>
+        <v>11064.1</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L14">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H14&lt;L14,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="8"/>
-        <v>FD13FCSBLA013</v>
+        <f>CONCATENATE(LEFT(A14,7),UPPER(LEFT(J14,3)),RIGHT(A14,3))</f>
+        <v>TY12CAMBLU029</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A15,2)</f>
+        <v>HO</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B15,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>CMR</v>
+        <f>MID(A15,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="3"/>
-        <v>Camero</v>
+        <f>VLOOKUP(D15,D$57:E$67,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
+        <f>MID(A15,3,2)</f>
+        <v>11</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>IF(14-F15&lt;0,100-F15+14,14-F15)</f>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>28464.799999999999</v>
+        <v>30555.3</v>
       </c>
       <c r="I15">
-        <f t="shared" si="6"/>
-        <v>5692.96</v>
+        <f>H15/IF(G15=0,(0.5+G15),G15)</f>
+        <v>10185.1</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L15">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H15&lt;L15,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="8"/>
-        <v>GM09CMRWHI014</v>
+        <f>CONCATENATE(LEFT(A15,7),UPPER(LEFT(J15,3)),RIGHT(A15,3))</f>
+        <v>HO11CIVBLA034</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -5737,34 +5737,34 @@
         <v>40</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A16,2)</f>
         <v>GM</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B16,B$57:C$62,2)</f>
         <v>General Motors</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(A16,5,3)</f>
         <v>CMR</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(D16,D$57:E$67,2)</f>
         <v>Camero</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A16,3,2)</f>
         <v>12</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f>IF(14-F16&lt;0,100-F16+14,14-F16)</f>
         <v>2</v>
       </c>
       <c r="H16">
         <v>19421.099999999999</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
+        <f>H16/IF(G16=0,(0.5+G16),G16)</f>
         <v>9710.5499999999993</v>
       </c>
       <c r="J16" t="s">
@@ -5777,51 +5777,51 @@
         <v>100000</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H16&lt;L16,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(LEFT(A16,7),UPPER(LEFT(J16,3)),RIGHT(A16,3))</f>
         <v>GM12CMRBLA015</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A17,2)</f>
+        <v>HY</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B17,B$57:C$62,2)</f>
+        <v>Hundai</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>CMR</v>
+        <f>MID(A17,5,3)</f>
+        <v>ELA</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="3"/>
-        <v>Camero</v>
+        <f>VLOOKUP(D17,D$57:E$67,2)</f>
+        <v>Elantra</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>MID(A17,3,2)</f>
+        <v>11</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(14-F17&lt;0,100-F17+14,14-F17)</f>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>14289.6</v>
+        <v>29102.3</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
-        <v>28579.200000000001</v>
+        <f>H17/IF(G17=0,(0.5+G17),G17)</f>
+        <v>9700.7666666666664</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
         <v>43</v>
@@ -5830,1588 +5830,1588 @@
         <v>100000</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H17&lt;L17,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="8"/>
-        <v>GM14CMRWHI016</v>
+        <f>CONCATENATE(LEFT(A17,7),UPPER(LEFT(J17,3)),RIGHT(A17,3))</f>
+        <v>HY11ELABLA049</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A18,2)</f>
+        <v>FD</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B18,B$57:C$62,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>SLV</v>
+        <f>MID(A18,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="3"/>
-        <v>Silverado</v>
+        <f>VLOOKUP(D18,D$57:E$67,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>MID(A18,3,2)</f>
+        <v>12</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>IF(14-F18&lt;0,100-F18+14,14-F18)</f>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>31144.400000000001</v>
+        <v>19341.7</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
-        <v>7786.1</v>
+        <f>H18/IF(G18=0,(0.5+G18),G18)</f>
+        <v>9670.85</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L18">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H18&lt;L18,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="8"/>
-        <v>GM10SLVBLA017</v>
+        <f>CONCATENATE(LEFT(A18,7),UPPER(LEFT(J18,3)),RIGHT(A18,3))</f>
+        <v>FD12FCSWHI011</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A19,2)</f>
+        <v>TY</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B19,B$57:C$62,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
-        <v>SLV</v>
+        <f>MID(A19,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="3"/>
-        <v>Silverado</v>
+        <f>VLOOKUP(D19,D$57:E$67,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f>MID(A19,3,2)</f>
+        <v>09</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>IF(14-F19&lt;0,100-F19+14,14-F19)</f>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>83162.7</v>
+        <v>48114.2</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
-        <v>5197.6687499999998</v>
+        <f>H19/IF(G19=0,(0.5+G19),G19)</f>
+        <v>9622.84</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L19">
         <v>100000</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H19&lt;L19,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="8"/>
-        <v>GM98SLVBLA018</v>
+        <f>CONCATENATE(LEFT(A19,7),UPPER(LEFT(J19,3)),RIGHT(A19,3))</f>
+        <v>TY09CAMWHI024</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>GM</v>
+        <f>LEFT(A20,2)</f>
+        <v>CR</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>General Motors</v>
+        <f>VLOOKUP(B20,B$57:C$62,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
-        <v>SLV</v>
+        <f>MID(A20,5,3)</f>
+        <v>PTC</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="3"/>
-        <v>Silverado</v>
+        <f>VLOOKUP(D20,D$57:E$67,2)</f>
+        <v>PT Cruiser</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
+        <f>MID(A20,3,2)</f>
+        <v>11</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>IF(14-F20&lt;0,100-F20+14,14-F20)</f>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>80685.8</v>
+        <v>27394.2</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
-        <v>5763.2714285714292</v>
+        <f>H20/IF(G20=0,(0.5+G20),G20)</f>
+        <v>9131.4</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
         <v>36</v>
       </c>
       <c r="L20">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H20&lt;L20,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="8"/>
-        <v>GM00SLVBLU019</v>
+        <f>CONCATENATE(LEFT(A20,7),UPPER(LEFT(J20,3)),RIGHT(A20,3))</f>
+        <v>CR11PTCBLA044</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A21,2)</f>
+        <v>HO</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B21,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A21,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D21,D$57:E$67,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="4"/>
-        <v>96</v>
+        <f>MID(A21,3,2)</f>
+        <v>10</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f>IF(14-F21&lt;0,100-F21+14,14-F21)</f>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>114660.6</v>
+        <v>33477.199999999997</v>
       </c>
       <c r="I21">
-        <f t="shared" si="6"/>
-        <v>6370.0333333333338</v>
+        <f>H21/IF(G21=0,(0.5+G21),G21)</f>
+        <v>8369.2999999999993</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L21">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="7"/>
-        <v>Not Covered</v>
+        <f>IF(H21&lt;L21,"Y","Not Covered")</f>
+        <v>Y</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="8"/>
-        <v>TY96CAMGRE020</v>
+        <f>CONCATENATE(LEFT(A21,7),UPPER(LEFT(J21,3)),RIGHT(A21,3))</f>
+        <v>HO10CIVBLA033</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A22,2)</f>
+        <v>GM</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B22,B$57:C$62,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A22,5,3)</f>
+        <v>SLV</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D22,D$57:E$67,2)</f>
+        <v>Silverado</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f>MID(A22,3,2)</f>
+        <v>10</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>IF(14-F22&lt;0,100-F22+14,14-F22)</f>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>93382.6</v>
+        <v>31144.400000000001</v>
       </c>
       <c r="I22">
-        <f t="shared" si="6"/>
-        <v>5836.4125000000004</v>
+        <f>H22/IF(G22=0,(0.5+G22),G22)</f>
+        <v>7786.1</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L22">
         <v>100000</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H22&lt;L22,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="8"/>
-        <v>TY98CAMBLA021</v>
+        <f>CONCATENATE(LEFT(A22,7),UPPER(LEFT(J22,3)),RIGHT(A22,3))</f>
+        <v>GM10SLVBLA017</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A23,2)</f>
+        <v>FD</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B23,B$57:C$62,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A23,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D23,D$57:E$67,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
+        <f>MID(A23,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>IF(14-F23&lt;0,100-F23+14,14-F23)</f>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>85928</v>
+        <v>44946.5</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
-        <v>6137.7142857142853</v>
+        <f>H23/IF(G23=0,(0.5+G23),G23)</f>
+        <v>7491.083333333333</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L23">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H23&lt;L23,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="8"/>
-        <v>TY00CAMGRE022</v>
+        <f>CONCATENATE(LEFT(A23,7),UPPER(LEFT(J23,3)),RIGHT(A23,3))</f>
+        <v>FD08MTGGRE003</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A24,2)</f>
+        <v>HO</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B24,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A24,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D24,D$57:E$67,2)</f>
+        <v>Odyssey</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+        <f>MID(A24,3,2)</f>
+        <v>14</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IF(14-F24&lt;0,100-F24+14,14-F24)</f>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>67829.100000000006</v>
+        <v>3708.1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
-        <v>5652.4250000000002</v>
+        <f>H24/IF(G24=0,(0.5+G24),G24)</f>
+        <v>7416.2</v>
       </c>
       <c r="J24" t="s">
         <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L24">
         <v>100000</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H24&lt;L24,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="8"/>
-        <v>TY02CAMBLA023</v>
+        <f>CONCATENATE(LEFT(A24,7),UPPER(LEFT(J24,3)),RIGHT(A24,3))</f>
+        <v>HO14ODYBLA041</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A25,2)</f>
+        <v>HO</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B25,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A25,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D25,D$57:E$67,2)</f>
+        <v>Odyssey</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="4"/>
-        <v>09</v>
+        <f>MID(A25,3,2)</f>
+        <v>07</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>IF(14-F25&lt;0,100-F25+14,14-F25)</f>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>48114.2</v>
+        <v>50854.1</v>
       </c>
       <c r="I25">
-        <f t="shared" si="6"/>
-        <v>9622.84</v>
+        <f>H25/IF(G25=0,(0.5+G25),G25)</f>
+        <v>7264.8714285714286</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="L25">
         <v>100000</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H25&lt;L25,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="8"/>
-        <v>TY09CAMWHI024</v>
+        <f>CONCATENATE(LEFT(A25,7),UPPER(LEFT(J25,3)),RIGHT(A25,3))</f>
+        <v>HO07ODYBLA038</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A26,2)</f>
+        <v>CR</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B26,B$57:C$62,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A26,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="3"/>
-        <v>Corola</v>
+        <f>VLOOKUP(D26,D$57:E$67,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="4"/>
-        <v>02</v>
+        <f>MID(A26,3,2)</f>
+        <v>04</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>IF(14-F26&lt;0,100-F26+14,14-F26)</f>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>64467.4</v>
+        <v>72527.199999999997</v>
       </c>
       <c r="I26">
-        <f t="shared" si="6"/>
-        <v>5372.2833333333338</v>
+        <f>H26/IF(G26=0,(0.5+G26),G26)</f>
+        <v>7252.7199999999993</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L26">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H26&lt;L26,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="8"/>
-        <v>TY02CORRED025</v>
+        <f>CONCATENATE(LEFT(A26,7),UPPER(LEFT(J26,3)),RIGHT(A26,3))</f>
+        <v>CR04CARWHI047</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A27,2)</f>
+        <v>HO</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B27,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A27,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="3"/>
-        <v>Corola</v>
+        <f>VLOOKUP(D27,D$57:E$67,2)</f>
+        <v>Odyssey</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="4"/>
-        <v>03</v>
+        <f>MID(A27,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>IF(14-F27&lt;0,100-F27+14,14-F27)</f>
+        <v>6</v>
       </c>
       <c r="H27">
-        <v>73444.399999999994</v>
+        <v>42504.6</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
-        <v>6676.7636363636357</v>
+        <f>H27/IF(G27=0,(0.5+G27),G27)</f>
+        <v>7084.0999999999995</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="L27">
         <v>100000</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H27&lt;L27,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="8"/>
-        <v>TY03CORBLA026</v>
+        <f>CONCATENATE(LEFT(A27,7),UPPER(LEFT(J27,3)),RIGHT(A27,3))</f>
+        <v>HO08ODYWHI039</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A28,2)</f>
+        <v>FD</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B28,B$57:C$62,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A28,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="3"/>
-        <v>Corola</v>
+        <f>VLOOKUP(D28,D$57:E$67,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>MID(A28,3,2)</f>
+        <v>09</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(14-F28&lt;0,100-F28+14,14-F28)</f>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>17556.3</v>
+        <v>35137</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
-        <v>35112.6</v>
+        <f>H28/IF(G28=0,(0.5+G28),G28)</f>
+        <v>7027.4</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L28">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H28&lt;L28,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="8"/>
-        <v>TY14CORBLU027</v>
+        <f>CONCATENATE(LEFT(A28,7),UPPER(LEFT(J28,3)),RIGHT(A28,3))</f>
+        <v>FD09FCSBLA008</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>TY</v>
+        <f>LEFT(A29,2)</f>
+        <v>HO</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>Toyota</v>
+        <f>VLOOKUP(B29,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>COR</v>
+        <f>MID(A29,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="3"/>
-        <v>Corola</v>
+        <f>VLOOKUP(D29,D$57:E$67,2)</f>
+        <v>Odyssey</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A29,3,2)</f>
+        <v>05</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>IF(14-F29&lt;0,100-F29+14,14-F29)</f>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>29601.9</v>
+        <v>60389.5</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
-        <v>14800.95</v>
+        <f>H29/IF(G29=0,(0.5+G29),G29)</f>
+        <v>6709.9444444444443</v>
       </c>
       <c r="J29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L29">
         <v>100000</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H29&lt;L29,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="8"/>
-        <v>TY12CORBLA028</v>
+        <f>CONCATENATE(LEFT(A29,7),UPPER(LEFT(J29,3)),RIGHT(A29,3))</f>
+        <v>HO05ODYWHI037</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A30,2)</f>
         <v>TY</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B30,B$57:C$62,2)</f>
         <v>Toyota</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>CAM</v>
+        <f>MID(A30,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="3"/>
-        <v>Camrey</v>
+        <f>VLOOKUP(D30,D$57:E$67,2)</f>
+        <v>Corola</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A30,3,2)</f>
+        <v>03</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>IF(14-F30&lt;0,100-F30+14,14-F30)</f>
+        <v>11</v>
       </c>
       <c r="H30">
-        <v>22128.2</v>
+        <v>73444.399999999994</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
-        <v>11064.1</v>
+        <f>H30/IF(G30=0,(0.5+G30),G30)</f>
+        <v>6676.7636363636357</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L30">
         <v>100000</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H30&lt;L30,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="8"/>
-        <v>TY12CAMBLU029</v>
+        <f>CONCATENATE(LEFT(A30,7),UPPER(LEFT(J30,3)),RIGHT(A30,3))</f>
+        <v>TY03CORBLA026</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A31,2)</f>
+        <v>FD</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B31,B$57:C$62,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A31,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D31,D$57:E$67,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="4"/>
-        <v>99</v>
+        <f>MID(A31,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f>IF(14-F31&lt;0,100-F31+14,14-F31)</f>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>82374</v>
+        <v>52229.5</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
-        <v>5491.6</v>
+        <f>H31/IF(G31=0,(0.5+G31),G31)</f>
+        <v>6528.6875</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L31">
         <v>75000</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="7"/>
-        <v>Not Covered</v>
+        <f>IF(H31&lt;L31,"Y","Not Covered")</f>
+        <v>Y</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="8"/>
-        <v>HO99CIVWHI030</v>
+        <f>CONCATENATE(LEFT(A31,7),UPPER(LEFT(J31,3)),RIGHT(A31,3))</f>
+        <v>FD06FCSGRE007</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A32,2)</f>
+        <v>CR</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B32,B$57:C$62,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A32,5,3)</f>
+        <v>PTC</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D32,D$57:E$67,2)</f>
+        <v>PT Cruiser</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+        <f>MID(A32,3,2)</f>
+        <v>04</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(14-F32&lt;0,100-F32+14,14-F32)</f>
+        <v>10</v>
       </c>
       <c r="H32">
-        <v>69891.899999999994</v>
+        <v>64542</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
-        <v>5376.2999999999993</v>
+        <f>H32/IF(G32=0,(0.5+G32),G32)</f>
+        <v>6454.2</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L32">
         <v>75000</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H32&lt;L32,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="8"/>
-        <v>HO01CIVBLU031</v>
+        <f>CONCATENATE(LEFT(A32,7),UPPER(LEFT(J32,3)),RIGHT(A32,3))</f>
+        <v>CR04PTCBLU042</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A33,2)</f>
+        <v>TY</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B33,B$57:C$62,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A33,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D33,D$57:E$67,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>MID(A33,3,2)</f>
+        <v>96</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>IF(14-F33&lt;0,100-F33+14,14-F33)</f>
+        <v>18</v>
       </c>
       <c r="H33">
-        <v>22573</v>
+        <v>114660.6</v>
       </c>
       <c r="I33">
-        <f t="shared" si="6"/>
-        <v>5643.25</v>
+        <f>H33/IF(G33=0,(0.5+G33),G33)</f>
+        <v>6370.0333333333338</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L33">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H33&lt;L33,"Y","Not Covered")</f>
+        <v>Not Covered</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="8"/>
-        <v>HO10CIVBLU032</v>
+        <f>CONCATENATE(LEFT(A33,7),UPPER(LEFT(J33,3)),RIGHT(A33,3))</f>
+        <v>TY96CAMGRE020</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A34,2)</f>
+        <v>FD</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B34,B$57:C$62,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A34,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D34,D$57:E$67,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f>MID(A34,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>IF(14-F34&lt;0,100-F34+14,14-F34)</f>
+        <v>6</v>
       </c>
       <c r="H34">
-        <v>33477.199999999997</v>
+        <v>37558.800000000003</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
-        <v>8369.2999999999993</v>
+        <f>H34/IF(G34=0,(0.5+G34),G34)</f>
+        <v>6259.8</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L34">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H34&lt;L34,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="8"/>
-        <v>HO10CIVBLA033</v>
+        <f>CONCATENATE(LEFT(A34,7),UPPER(LEFT(J34,3)),RIGHT(A34,3))</f>
+        <v>FD08MTGBLA004</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A35,2)</f>
+        <v>TY</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B35,B$57:C$62,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A35,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D35,D$57:E$67,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>MID(A35,3,2)</f>
+        <v>00</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>IF(14-F35&lt;0,100-F35+14,14-F35)</f>
+        <v>14</v>
       </c>
       <c r="H35">
-        <v>30555.3</v>
+        <v>85928</v>
       </c>
       <c r="I35">
-        <f t="shared" si="6"/>
-        <v>10185.1</v>
+        <f>H35/IF(G35=0,(0.5+G35),G35)</f>
+        <v>6137.7142857142853</v>
       </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L35">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H35&lt;L35,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="8"/>
-        <v>HO11CIVBLA034</v>
+        <f>CONCATENATE(LEFT(A35,7),UPPER(LEFT(J35,3)),RIGHT(A35,3))</f>
+        <v>TY00CAMGRE022</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A36,2)</f>
+        <v>FD</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B36,B$57:C$62,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A36,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D36,D$57:E$67,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A36,3,2)</f>
+        <v>08</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>IF(14-F36&lt;0,100-F36+14,14-F36)</f>
+        <v>6</v>
       </c>
       <c r="H36">
-        <v>24513.200000000001</v>
+        <v>36438.5</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
-        <v>12256.6</v>
+        <f>H36/IF(G36=0,(0.5+G36),G36)</f>
+        <v>6073.083333333333</v>
       </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="L36">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H36&lt;L36,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="8"/>
-        <v>HO12CIVBLA035</v>
+        <f>CONCATENATE(LEFT(A36,7),UPPER(LEFT(J36,3)),RIGHT(A36,3))</f>
+        <v>FD08MTGWHI005</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A37,2)</f>
+        <v>CR</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B37,B$57:C$62,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
-        <v>CIV</v>
+        <f>MID(A37,5,3)</f>
+        <v>PTC</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="3"/>
-        <v>Civic</v>
+        <f>VLOOKUP(D37,D$57:E$67,2)</f>
+        <v>PT Cruiser</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A37,3,2)</f>
+        <v>07</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(14-F37&lt;0,100-F37+14,14-F37)</f>
+        <v>7</v>
       </c>
       <c r="H37">
-        <v>13867.6</v>
+        <v>42074.2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
-        <v>13867.6</v>
+        <f>H37/IF(G37=0,(0.5+G37),G37)</f>
+        <v>6010.5999999999995</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L37">
         <v>75000</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H37&lt;L37,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="8"/>
-        <v>HO13CIVBLA036</v>
+        <f>CONCATENATE(LEFT(A37,7),UPPER(LEFT(J37,3)),RIGHT(A37,3))</f>
+        <v>CR07PTCGRE043</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A38,2)</f>
+        <v>TY</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B38,B$57:C$62,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A38,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssey</v>
+        <f>VLOOKUP(D38,D$57:E$67,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="4"/>
-        <v>05</v>
+        <f>MID(A38,3,2)</f>
+        <v>98</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>IF(14-F38&lt;0,100-F38+14,14-F38)</f>
+        <v>16</v>
       </c>
       <c r="H38">
-        <v>60389.5</v>
+        <v>93382.6</v>
       </c>
       <c r="I38">
-        <f t="shared" si="6"/>
-        <v>6709.9444444444443</v>
+        <f>H38/IF(G38=0,(0.5+G38),G38)</f>
+        <v>5836.4125000000004</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="L38">
         <v>100000</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H38&lt;L38,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="8"/>
-        <v>HO05ODYWHI037</v>
+        <f>CONCATENATE(LEFT(A38,7),UPPER(LEFT(J38,3)),RIGHT(A38,3))</f>
+        <v>TY98CAMBLA021</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A39,2)</f>
+        <v>FD</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B39,B$57:C$62,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A39,5,3)</f>
+        <v>FCS</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssey</v>
+        <f>VLOOKUP(D39,D$57:E$67,2)</f>
+        <v>Focus</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
+        <f>MID(A39,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f>IF(14-F39&lt;0,100-F39+14,14-F39)</f>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>50854.1</v>
+        <v>46311.4</v>
       </c>
       <c r="I39">
-        <f t="shared" si="6"/>
-        <v>7264.8714285714286</v>
+        <f>H39/IF(G39=0,(0.5+G39),G39)</f>
+        <v>5788.9250000000002</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="L39">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H39&lt;L39,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="8"/>
-        <v>HO07ODYBLA038</v>
+        <f>CONCATENATE(LEFT(A39,7),UPPER(LEFT(J39,3)),RIGHT(A39,3))</f>
+        <v>FD06FCSGRE006</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A40,2)</f>
+        <v>GM</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B40,B$57:C$62,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A40,5,3)</f>
+        <v>SLV</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssey</v>
+        <f>VLOOKUP(D40,D$57:E$67,2)</f>
+        <v>Silverado</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="4"/>
-        <v>08</v>
+        <f>MID(A40,3,2)</f>
+        <v>00</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>IF(14-F40&lt;0,100-F40+14,14-F40)</f>
+        <v>14</v>
       </c>
       <c r="H40">
-        <v>42504.6</v>
+        <v>80685.8</v>
       </c>
       <c r="I40">
-        <f t="shared" si="6"/>
-        <v>7084.0999999999995</v>
+        <f>H40/IF(G40=0,(0.5+G40),G40)</f>
+        <v>5763.2714285714292</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L40">
         <v>100000</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H40&lt;L40,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="8"/>
-        <v>HO08ODYWHI039</v>
+        <f>CONCATENATE(LEFT(A40,7),UPPER(LEFT(J40,3)),RIGHT(A40,3))</f>
+        <v>GM00SLVBLU019</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A41,2)</f>
+        <v>GM</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B41,B$57:C$62,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A41,5,3)</f>
+        <v>CMR</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssey</v>
+        <f>VLOOKUP(D41,D$57:E$67,2)</f>
+        <v>Camero</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
+        <f>MID(A41,3,2)</f>
+        <v>09</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>IF(14-F41&lt;0,100-F41+14,14-F41)</f>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>68658.899999999994</v>
+        <v>28464.799999999999</v>
       </c>
       <c r="I41">
-        <f t="shared" si="6"/>
-        <v>5281.4538461538459</v>
+        <f>H41/IF(G41=0,(0.5+G41),G41)</f>
+        <v>5692.96</v>
       </c>
       <c r="J41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L41">
         <v>100000</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H41&lt;L41,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="8"/>
-        <v>HO01ODYBLA040</v>
+        <f>CONCATENATE(LEFT(A41,7),UPPER(LEFT(J41,3)),RIGHT(A41,3))</f>
+        <v>GM09CMRWHI014</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>HO</v>
+        <f>LEFT(A42,2)</f>
+        <v>TY</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
-        <v>Honda</v>
+        <f>VLOOKUP(B42,B$57:C$62,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
-        <v>ODY</v>
+        <f>MID(A42,5,3)</f>
+        <v>CAM</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="3"/>
-        <v>Odyssey</v>
+        <f>VLOOKUP(D42,D$57:E$67,2)</f>
+        <v>Camrey</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>MID(A42,3,2)</f>
+        <v>02</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(14-F42&lt;0,100-F42+14,14-F42)</f>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>3708.1</v>
+        <v>67829.100000000006</v>
       </c>
       <c r="I42">
-        <f t="shared" si="6"/>
-        <v>7416.2</v>
+        <f>H42/IF(G42=0,(0.5+G42),G42)</f>
+        <v>5652.4250000000002</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L42">
         <v>100000</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H42&lt;L42,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="8"/>
-        <v>HO14ODYBLA041</v>
+        <f>CONCATENATE(LEFT(A42,7),UPPER(LEFT(J42,3)),RIGHT(A42,3))</f>
+        <v>TY02CAMBLA023</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A43,2)</f>
+        <v>HO</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B43,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
-        <v>PTC</v>
+        <f>MID(A43,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="3"/>
-        <v>PT Cruiser</v>
+        <f>VLOOKUP(D43,D$57:E$67,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
+        <f>MID(A43,3,2)</f>
+        <v>10</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>IF(14-F43&lt;0,100-F43+14,14-F43)</f>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>64542</v>
+        <v>22573</v>
       </c>
       <c r="I43">
-        <f t="shared" si="6"/>
-        <v>6454.2</v>
+        <f>H43/IF(G43=0,(0.5+G43),G43)</f>
+        <v>5643.25</v>
       </c>
       <c r="J43" t="s">
         <v>48</v>
       </c>
       <c r="K43" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L43">
         <v>75000</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H43&lt;L43,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="8"/>
-        <v>CR04PTCBLU042</v>
+        <f>CONCATENATE(LEFT(A43,7),UPPER(LEFT(J43,3)),RIGHT(A43,3))</f>
+        <v>HO10CIVBLU032</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A44,2)</f>
+        <v>FD</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B44,B$57:C$62,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
-        <v>PTC</v>
+        <f>MID(A44,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="3"/>
-        <v>PT Cruiser</v>
+        <f>VLOOKUP(D44,D$57:E$67,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="4"/>
-        <v>07</v>
+        <f>MID(A44,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f>IF(14-F44&lt;0,100-F44+14,14-F44)</f>
+        <v>8</v>
       </c>
       <c r="H44">
-        <v>42074.2</v>
+        <v>44974.8</v>
       </c>
       <c r="I44">
-        <f t="shared" si="6"/>
-        <v>6010.5999999999995</v>
+        <f>H44/IF(G44=0,(0.5+G44),G44)</f>
+        <v>5621.85</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="L44">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H44&lt;L44,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="8"/>
-        <v>CR07PTCGRE043</v>
+        <f>CONCATENATE(LEFT(A44,7),UPPER(LEFT(J44,3)),RIGHT(A44,3))</f>
+        <v>FD06MTGWHI002</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A45,2)</f>
         <v>CR</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B45,B$57:C$62,2)</f>
         <v>Chrysler</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
-        <v>PTC</v>
+        <f>MID(A45,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="3"/>
-        <v>PT Cruiser</v>
+        <f>VLOOKUP(D45,D$57:E$67,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>MID(A45,3,2)</f>
+        <v>00</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>IF(14-F45&lt;0,100-F45+14,14-F45)</f>
+        <v>14</v>
       </c>
       <c r="H45">
-        <v>27394.2</v>
+        <v>77243.100000000006</v>
       </c>
       <c r="I45">
-        <f t="shared" si="6"/>
-        <v>9131.4</v>
+        <f>H45/IF(G45=0,(0.5+G45),G45)</f>
+        <v>5517.3642857142859</v>
       </c>
       <c r="J45" t="s">
         <v>15</v>
       </c>
       <c r="K45" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L45">
         <v>75000</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H45&lt;L45,"Y","Not Covered")</f>
+        <v>Not Covered</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="8"/>
-        <v>CR11PTCBLA044</v>
+        <f>CONCATENATE(LEFT(A45,7),UPPER(LEFT(J45,3)),RIGHT(A45,3))</f>
+        <v>CR00CARBLA046</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A46,2)</f>
+        <v>HO</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B46,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A46,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D46,D$57:E$67,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(A46,3,2)</f>
         <v>99</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f>IF(14-F46&lt;0,100-F46+14,14-F46)</f>
         <v>15</v>
       </c>
       <c r="H46">
-        <v>79420.600000000006</v>
+        <v>82374</v>
       </c>
       <c r="I46">
-        <f t="shared" si="6"/>
-        <v>5294.7066666666669</v>
+        <f>H46/IF(G46=0,(0.5+G46),G46)</f>
+        <v>5491.6</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L46">
         <v>75000</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H46&lt;L46,"Y","Not Covered")</f>
         <v>Not Covered</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="8"/>
-        <v>CR99CARGRE045</v>
+        <f>CONCATENATE(LEFT(A46,7),UPPER(LEFT(J46,3)),RIGHT(A46,3))</f>
+        <v>HO99CIVWHI030</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A47,2)</f>
+        <v>HO</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B47,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A47,5,3)</f>
+        <v>CIV</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D47,D$57:E$67,2)</f>
+        <v>Civic</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
+        <f>MID(A47,3,2)</f>
+        <v>01</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>IF(14-F47&lt;0,100-F47+14,14-F47)</f>
+        <v>13</v>
       </c>
       <c r="H47">
-        <v>77243.100000000006</v>
+        <v>69891.899999999994</v>
       </c>
       <c r="I47">
-        <f t="shared" si="6"/>
-        <v>5517.3642857142859</v>
+        <f>H47/IF(G47=0,(0.5+G47),G47)</f>
+        <v>5376.2999999999993</v>
       </c>
       <c r="J47" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s">
         <v>24</v>
@@ -7420,330 +7420,330 @@
         <v>75000</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="7"/>
-        <v>Not Covered</v>
+        <f>IF(H47&lt;L47,"Y","Not Covered")</f>
+        <v>Y</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="8"/>
-        <v>CR00CARBLA046</v>
+        <f>CONCATENATE(LEFT(A47,7),UPPER(LEFT(J47,3)),RIGHT(A47,3))</f>
+        <v>HO01CIVBLU031</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>CR</v>
+        <f>LEFT(A48,2)</f>
+        <v>TY</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
-        <v>Chrysler</v>
+        <f>VLOOKUP(B48,B$57:C$62,2)</f>
+        <v>Toyota</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
-        <v>CAR</v>
+        <f>MID(A48,5,3)</f>
+        <v>COR</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="3"/>
-        <v>Caravan</v>
+        <f>VLOOKUP(D48,D$57:E$67,2)</f>
+        <v>Corola</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
+        <f>MID(A48,3,2)</f>
+        <v>02</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>IF(14-F48&lt;0,100-F48+14,14-F48)</f>
+        <v>12</v>
       </c>
       <c r="H48">
-        <v>72527.199999999997</v>
+        <v>64467.4</v>
       </c>
       <c r="I48">
-        <f t="shared" si="6"/>
-        <v>7252.7199999999993</v>
+        <f>H48/IF(G48=0,(0.5+G48),G48)</f>
+        <v>5372.2833333333338</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="L48">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H48&lt;L48,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="8"/>
-        <v>CR04CARWHI047</v>
+        <f>CONCATENATE(LEFT(A48,7),UPPER(LEFT(J48,3)),RIGHT(A48,3))</f>
+        <v>TY02CORRED025</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(A49,2)</f>
         <v>CR</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B49,B$57:C$62,2)</f>
         <v>Chrysler</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(A49,5,3)</f>
         <v>CAR</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(D49,D$57:E$67,2)</f>
         <v>Caravan</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="4"/>
-        <v>04</v>
+        <f>MID(A49,3,2)</f>
+        <v>99</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>IF(14-F49&lt;0,100-F49+14,14-F49)</f>
+        <v>15</v>
       </c>
       <c r="H49">
-        <v>52699.4</v>
+        <v>79420.600000000006</v>
       </c>
       <c r="I49">
-        <f t="shared" si="6"/>
-        <v>5269.9400000000005</v>
+        <f>H49/IF(G49=0,(0.5+G49),G49)</f>
+        <v>5294.7066666666669</v>
       </c>
       <c r="J49" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L49">
         <v>75000</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="7"/>
-        <v>Y</v>
+        <f>IF(H49&lt;L49,"Y","Not Covered")</f>
+        <v>Not Covered</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="8"/>
-        <v>CR04CARRED048</v>
+        <f>CONCATENATE(LEFT(A49,7),UPPER(LEFT(J49,3)),RIGHT(A49,3))</f>
+        <v>CR99CARGRE045</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A50,2)</f>
+        <v>HO</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
-        <v>Hundai</v>
+        <f>VLOOKUP(B50,B$57:C$62,2)</f>
+        <v>Honda</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A50,5,3)</f>
+        <v>ODY</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D50,D$57:E$67,2)</f>
+        <v>Odyssey</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>MID(A50,3,2)</f>
+        <v>01</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>IF(14-F50&lt;0,100-F50+14,14-F50)</f>
+        <v>13</v>
       </c>
       <c r="H50">
-        <v>29102.3</v>
+        <v>68658.899999999994</v>
       </c>
       <c r="I50">
-        <f t="shared" si="6"/>
-        <v>9700.7666666666664</v>
+        <f>H50/IF(G50=0,(0.5+G50),G50)</f>
+        <v>5281.4538461538459</v>
       </c>
       <c r="J50" t="s">
         <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="L50">
         <v>100000</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H50&lt;L50,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="8"/>
-        <v>HY11ELABLA049</v>
+        <f>CONCATENATE(LEFT(A50,7),UPPER(LEFT(J50,3)),RIGHT(A50,3))</f>
+        <v>HO01ODYBLA040</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A51,2)</f>
+        <v>CR</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
-        <v>Hundai</v>
+        <f>VLOOKUP(B51,B$57:C$62,2)</f>
+        <v>Chrysler</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A51,5,3)</f>
+        <v>CAR</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D51,D$57:E$67,2)</f>
+        <v>Caravan</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>MID(A51,3,2)</f>
+        <v>04</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>IF(14-F51&lt;0,100-F51+14,14-F51)</f>
+        <v>10</v>
       </c>
       <c r="H51">
-        <v>22282</v>
+        <v>52699.4</v>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
-        <v>11141</v>
+        <f>H51/IF(G51=0,(0.5+G51),G51)</f>
+        <v>5269.9400000000005</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="L51">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H51&lt;L51,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="8"/>
-        <v>HY12ELABLU050</v>
+        <f>CONCATENATE(LEFT(A51,7),UPPER(LEFT(J51,3)),RIGHT(A51,3))</f>
+        <v>CR04CARRED048</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A52,2)</f>
+        <v>GM</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
-        <v>Hundai</v>
+        <f>VLOOKUP(B52,B$57:C$62,2)</f>
+        <v>General Motors</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A52,5,3)</f>
+        <v>SLV</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D52,D$57:E$67,2)</f>
+        <v>Silverado</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A52,3,2)</f>
+        <v>98</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(14-F52&lt;0,100-F52+14,14-F52)</f>
+        <v>16</v>
       </c>
       <c r="H52">
-        <v>20223.900000000001</v>
+        <v>83162.7</v>
       </c>
       <c r="I52">
-        <f t="shared" si="6"/>
-        <v>20223.900000000001</v>
+        <f>H52/IF(G52=0,(0.5+G52),G52)</f>
+        <v>5197.6687499999998</v>
       </c>
       <c r="J52" t="s">
         <v>15</v>
       </c>
       <c r="K52" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="L52">
         <v>100000</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H52&lt;L52,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="8"/>
-        <v>HY13ELABLA051</v>
+        <f>CONCATENATE(LEFT(A52,7),UPPER(LEFT(J52,3)),RIGHT(A52,3))</f>
+        <v>GM98SLVBLA018</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>HY</v>
+        <f>LEFT(A53,2)</f>
+        <v>FD</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
-        <v>Hundai</v>
+        <f>VLOOKUP(B53,B$57:C$62,2)</f>
+        <v>Ford</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
-        <v>ELA</v>
+        <f>MID(A53,5,3)</f>
+        <v>MTG</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="3"/>
-        <v>Elantra</v>
+        <f>VLOOKUP(D53,D$57:E$67,2)</f>
+        <v>Mustang</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>MID(A53,3,2)</f>
+        <v>06</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(14-F53&lt;0,100-F53+14,14-F53)</f>
+        <v>8</v>
       </c>
       <c r="H53">
-        <v>22188.5</v>
+        <v>40326.800000000003</v>
       </c>
       <c r="I53">
-        <f t="shared" si="6"/>
-        <v>22188.5</v>
+        <f>H53/IF(G53=0,(0.5+G53),G53)</f>
+        <v>5040.8500000000004</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K53" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L53">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H53&lt;L53,"Y","Not Covered")</f>
         <v>Y</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="8"/>
-        <v>HY13ELABLU052</v>
+        <f>CONCATENATE(LEFT(A53,7),UPPER(LEFT(J53,3)),RIGHT(A53,3))</f>
+        <v>FD06MTGBLA001</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -7871,9 +7871,21 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D57:E67">
-    <sortCondition ref="D57:D67"/>
+  <sortState ref="A2:N53">
+    <sortCondition descending="1" ref="I2:I53"/>
   </sortState>
+  <conditionalFormatting sqref="I2:I53">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
